--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il11-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il11-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Il11</t>
+  </si>
+  <si>
+    <t>Il6st</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il11</t>
-  </si>
-  <si>
-    <t>Il6st</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2464613333333333</v>
+        <v>0.4757333333333333</v>
       </c>
       <c r="H2">
-        <v>0.7393839999999999</v>
+        <v>1.4272</v>
       </c>
       <c r="I2">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="J2">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N2">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O2">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P2">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q2">
-        <v>12.43539675932889</v>
+        <v>24.7172786112</v>
       </c>
       <c r="R2">
-        <v>111.91857083396</v>
+        <v>222.4555075008</v>
       </c>
       <c r="S2">
-        <v>0.009650348862135678</v>
+        <v>0.0196362081835374</v>
       </c>
       <c r="T2">
-        <v>0.009650348862135677</v>
+        <v>0.0196362081835374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2464613333333333</v>
+        <v>0.4757333333333333</v>
       </c>
       <c r="H3">
-        <v>0.7393839999999999</v>
+        <v>1.4272</v>
       </c>
       <c r="I3">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="J3">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>447.796844</v>
       </c>
       <c r="O3">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P3">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q3">
-        <v>36.78820241156622</v>
+        <v>71.01062841742223</v>
       </c>
       <c r="R3">
-        <v>331.093821704096</v>
+        <v>639.0956557568001</v>
       </c>
       <c r="S3">
-        <v>0.02854906796730422</v>
+        <v>0.05641314744967483</v>
       </c>
       <c r="T3">
-        <v>0.02854906796730421</v>
+        <v>0.05641314744967483</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2464613333333333</v>
+        <v>0.4757333333333333</v>
       </c>
       <c r="H4">
-        <v>0.7393839999999999</v>
+        <v>1.4272</v>
       </c>
       <c r="I4">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="J4">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N4">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O4">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P4">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q4">
-        <v>3.274294102825777</v>
+        <v>7.392565841066667</v>
       </c>
       <c r="R4">
-        <v>29.468646925432</v>
+        <v>66.5330925696</v>
       </c>
       <c r="S4">
-        <v>0.00254097886710352</v>
+        <v>0.005872894186656775</v>
       </c>
       <c r="T4">
-        <v>0.00254097886710352</v>
+        <v>0.005872894186656774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2464613333333333</v>
+        <v>0.4757333333333333</v>
       </c>
       <c r="H5">
-        <v>0.7393839999999999</v>
+        <v>1.4272</v>
       </c>
       <c r="I5">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="J5">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N5">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O5">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P5">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q5">
-        <v>7.72684927022311</v>
+        <v>7.463343702044445</v>
       </c>
       <c r="R5">
-        <v>69.54164343200799</v>
+        <v>67.17009331840001</v>
       </c>
       <c r="S5">
-        <v>0.005996333893154825</v>
+        <v>0.005929122416099289</v>
       </c>
       <c r="T5">
-        <v>0.005996333893154823</v>
+        <v>0.005929122416099289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2464613333333333</v>
+        <v>0.4757333333333333</v>
       </c>
       <c r="H6">
-        <v>0.7393839999999999</v>
+        <v>1.4272</v>
       </c>
       <c r="I6">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="J6">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N6">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O6">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P6">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q6">
-        <v>0.9415047213146666</v>
+        <v>1.790427315911111</v>
       </c>
       <c r="R6">
-        <v>8.473542491831999</v>
+        <v>16.1138458432</v>
       </c>
       <c r="S6">
-        <v>0.0007306440793067793</v>
+        <v>0.001422373557612935</v>
       </c>
       <c r="T6">
-        <v>0.0007306440793067792</v>
+        <v>0.001422373557612935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2464613333333333</v>
+        <v>0.4757333333333333</v>
       </c>
       <c r="H7">
-        <v>0.7393839999999999</v>
+        <v>1.4272</v>
       </c>
       <c r="I7">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="J7">
-        <v>0.0508000738176635</v>
+        <v>0.09462504296316414</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N7">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O7">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P7">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q7">
-        <v>4.294502636174221</v>
+        <v>6.736000241777778</v>
       </c>
       <c r="R7">
-        <v>38.65052372556799</v>
+        <v>60.624002176</v>
       </c>
       <c r="S7">
-        <v>0.00333270014865848</v>
+        <v>0.005351297169582907</v>
       </c>
       <c r="T7">
-        <v>0.003332700148658479</v>
+        <v>0.005351297169582907</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>11.192539</v>
       </c>
       <c r="I8">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="J8">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N8">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O8">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P8">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q8">
-        <v>188.2427307180872</v>
+        <v>193.840460222619</v>
       </c>
       <c r="R8">
-        <v>1694.184576462785</v>
+        <v>1744.564142003571</v>
       </c>
       <c r="S8">
-        <v>0.1460836398989689</v>
+        <v>0.1539931515599506</v>
       </c>
       <c r="T8">
-        <v>0.1460836398989689</v>
+        <v>0.1539931515599506</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>11.192539</v>
       </c>
       <c r="I9">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="J9">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>447.796844</v>
       </c>
       <c r="O9">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P9">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q9">
         <v>556.8870711718796</v>
@@ -1013,10 +1013,10 @@
         <v>5011.983640546916</v>
       </c>
       <c r="S9">
-        <v>0.4321659065353094</v>
+        <v>0.4424091598537248</v>
       </c>
       <c r="T9">
-        <v>0.4321659065353093</v>
+        <v>0.4424091598537248</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>11.192539</v>
       </c>
       <c r="I10">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="J10">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N10">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O10">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P10">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q10">
-        <v>49.56513049152745</v>
+        <v>57.97476281264468</v>
       </c>
       <c r="R10">
-        <v>446.086174423747</v>
+        <v>521.7728653138021</v>
       </c>
       <c r="S10">
-        <v>0.03846445834401606</v>
+        <v>0.04605703281041846</v>
       </c>
       <c r="T10">
-        <v>0.03846445834401605</v>
+        <v>0.04605703281041845</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>11.192539</v>
       </c>
       <c r="I11">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="J11">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N11">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O11">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P11">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q11">
-        <v>116.9663690370548</v>
+        <v>58.52982445034812</v>
       </c>
       <c r="R11">
-        <v>1052.697321333493</v>
+        <v>526.768420053133</v>
       </c>
       <c r="S11">
-        <v>0.09077042640381347</v>
+        <v>0.04649799178669108</v>
       </c>
       <c r="T11">
-        <v>0.09077042640381344</v>
+        <v>0.04649799178669108</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>11.192539</v>
       </c>
       <c r="I12">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="J12">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N12">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O12">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P12">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q12">
-        <v>14.25217250034967</v>
+        <v>14.04107872757878</v>
       </c>
       <c r="R12">
-        <v>128.269552503147</v>
+        <v>126.369708548209</v>
       </c>
       <c r="S12">
-        <v>0.01106023710651058</v>
+        <v>0.0111546885623259</v>
       </c>
       <c r="T12">
-        <v>0.01106023710651058</v>
+        <v>0.0111546885623259</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>11.192539</v>
       </c>
       <c r="I13">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="J13">
-        <v>0.7689939292804249</v>
+        <v>0.7420785340119745</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N13">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O13">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P13">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q13">
-        <v>65.00869404934755</v>
+        <v>52.82577453062445</v>
       </c>
       <c r="R13">
-        <v>585.0782464441279</v>
+        <v>475.43197077562</v>
       </c>
       <c r="S13">
-        <v>0.05044926099180647</v>
+        <v>0.04196650943886372</v>
       </c>
       <c r="T13">
-        <v>0.05044926099180646</v>
+        <v>0.04196650943886372</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1293,10 +1293,10 @@
         <v>0.17351</v>
       </c>
       <c r="I14">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="J14">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N14">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O14">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P14">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q14">
-        <v>2.918193647294445</v>
+        <v>3.00497128071</v>
       </c>
       <c r="R14">
-        <v>26.26374282565</v>
+        <v>27.04474152639</v>
       </c>
       <c r="S14">
-        <v>0.002264631140340015</v>
+        <v>0.002387246694174309</v>
       </c>
       <c r="T14">
-        <v>0.002264631140340014</v>
+        <v>0.002387246694174309</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1355,10 +1355,10 @@
         <v>0.17351</v>
       </c>
       <c r="I15">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="J15">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,10 +1373,10 @@
         <v>447.796844</v>
       </c>
       <c r="O15">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P15">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q15">
         <v>8.633025600271111</v>
@@ -1385,10 +1385,10 @@
         <v>77.69723040244</v>
       </c>
       <c r="S15">
-        <v>0.006699561774405391</v>
+        <v>0.006858355671239545</v>
       </c>
       <c r="T15">
-        <v>0.006699561774405388</v>
+        <v>0.006858355671239545</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1417,10 +1417,10 @@
         <v>0.17351</v>
       </c>
       <c r="I16">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="J16">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N16">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O16">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P16">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q16">
-        <v>0.768373091358889</v>
+        <v>0.8987416613533334</v>
       </c>
       <c r="R16">
-        <v>6.915357822230001</v>
+        <v>8.08867495218</v>
       </c>
       <c r="S16">
-        <v>0.000596287238067272</v>
+        <v>0.0007139895391863908</v>
       </c>
       <c r="T16">
-        <v>0.0005962872380672718</v>
+        <v>0.0007139895391863908</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1479,10 +1479,10 @@
         <v>0.17351</v>
       </c>
       <c r="I17">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="J17">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N17">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O17">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P17">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q17">
-        <v>1.813246725485556</v>
+        <v>0.9073463885522223</v>
       </c>
       <c r="R17">
-        <v>16.31922052937</v>
+        <v>8.166117496970001</v>
       </c>
       <c r="S17">
-        <v>0.001407149591824132</v>
+        <v>0.0007208254136893131</v>
       </c>
       <c r="T17">
-        <v>0.001407149591824131</v>
+        <v>0.0007208254136893131</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1541,10 +1541,10 @@
         <v>0.17351</v>
       </c>
       <c r="I18">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="J18">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N18">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O18">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P18">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q18">
-        <v>0.2209413298033333</v>
+        <v>0.2176688926455555</v>
       </c>
       <c r="R18">
-        <v>1.98847196823</v>
+        <v>1.95902003381</v>
       </c>
       <c r="S18">
-        <v>0.0001714590175071672</v>
+        <v>0.0001729232314892239</v>
       </c>
       <c r="T18">
-        <v>0.0001714590175071671</v>
+        <v>0.0001729232314892239</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1603,10 +1603,10 @@
         <v>0.17351</v>
       </c>
       <c r="I19">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="J19">
-        <v>0.0119211679020682</v>
+        <v>0.01150391760407694</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N19">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O19">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P19">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q19">
-        <v>1.007783712391111</v>
+        <v>0.818920545088889</v>
       </c>
       <c r="R19">
-        <v>9.070053411519998</v>
+        <v>7.3702849058</v>
       </c>
       <c r="S19">
-        <v>0.0007820791399242246</v>
+        <v>0.0006505770542981574</v>
       </c>
       <c r="T19">
-        <v>0.0007820791399242244</v>
+        <v>0.0006505770542981574</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7237936666666668</v>
+        <v>0.7631463333333333</v>
       </c>
       <c r="H20">
-        <v>2.171381</v>
+        <v>2.289439</v>
       </c>
       <c r="I20">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="J20">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N20">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O20">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P20">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q20">
-        <v>36.51956797911279</v>
+        <v>39.650155287519</v>
       </c>
       <c r="R20">
-        <v>328.6761118120151</v>
+        <v>356.851397587671</v>
       </c>
       <c r="S20">
-        <v>0.02834059725746437</v>
+        <v>0.03149936997443222</v>
       </c>
       <c r="T20">
-        <v>0.02834059725746436</v>
+        <v>0.03149936997443222</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7237936666666668</v>
+        <v>0.7631463333333333</v>
       </c>
       <c r="H21">
-        <v>2.171381</v>
+        <v>2.289439</v>
       </c>
       <c r="I21">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="J21">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>447.796844</v>
       </c>
       <c r="O21">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P21">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q21">
-        <v>108.0375065468405</v>
+        <v>113.9115065256129</v>
       </c>
       <c r="R21">
-        <v>972.3375589215641</v>
+        <v>1025.203558730516</v>
       </c>
       <c r="S21">
-        <v>0.08384128376041815</v>
+        <v>0.09049499711605666</v>
       </c>
       <c r="T21">
-        <v>0.08384128376041813</v>
+        <v>0.09049499711605666</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.7237936666666668</v>
+        <v>0.7631463333333333</v>
       </c>
       <c r="H22">
-        <v>2.171381</v>
+        <v>2.289439</v>
       </c>
       <c r="I22">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="J22">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N22">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O22">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P22">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q22">
-        <v>9.615761232712558</v>
+        <v>11.85876439644467</v>
       </c>
       <c r="R22">
-        <v>86.54185109441302</v>
+        <v>106.728879568002</v>
       </c>
       <c r="S22">
-        <v>0.00746220263547779</v>
+        <v>0.009420987243417389</v>
       </c>
       <c r="T22">
-        <v>0.007462202635477789</v>
+        <v>0.009420987243417387</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.7237936666666668</v>
+        <v>0.7631463333333333</v>
       </c>
       <c r="H23">
-        <v>2.171381</v>
+        <v>2.289439</v>
       </c>
       <c r="I23">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="J23">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N23">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O23">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P23">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q23">
-        <v>22.69177273950523</v>
+        <v>11.97230250971478</v>
       </c>
       <c r="R23">
-        <v>204.225954655547</v>
+        <v>107.750722587433</v>
       </c>
       <c r="S23">
-        <v>0.01760969331937453</v>
+        <v>0.009511185604814978</v>
       </c>
       <c r="T23">
-        <v>0.01760969331937453</v>
+        <v>0.009511185604814978</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.7237936666666668</v>
+        <v>0.7631463333333333</v>
       </c>
       <c r="H24">
-        <v>2.171381</v>
+        <v>2.289439</v>
       </c>
       <c r="I24">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="J24">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N24">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O24">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P24">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q24">
-        <v>2.764957671890334</v>
+        <v>2.872109111345444</v>
       </c>
       <c r="R24">
-        <v>24.884619047013</v>
+        <v>25.84898200210899</v>
       </c>
       <c r="S24">
-        <v>0.002145714096557721</v>
+        <v>0.002281696675566003</v>
       </c>
       <c r="T24">
-        <v>0.002145714096557721</v>
+        <v>0.002281696675566003</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.7237936666666668</v>
+        <v>0.7631463333333333</v>
       </c>
       <c r="H25">
-        <v>2.171381</v>
+        <v>2.289439</v>
       </c>
       <c r="I25">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="J25">
-        <v>0.1491867758651418</v>
+        <v>0.1517925054207844</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N25">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O25">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P25">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q25">
-        <v>12.61185179641245</v>
+        <v>10.80553647529111</v>
       </c>
       <c r="R25">
-        <v>113.506666167712</v>
+        <v>97.24982827762</v>
       </c>
       <c r="S25">
-        <v>0.009787284795849248</v>
+        <v>0.008584268806497141</v>
       </c>
       <c r="T25">
-        <v>0.009787284795849246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.092656</v>
-      </c>
-      <c r="H26">
-        <v>0.277968</v>
-      </c>
-      <c r="I26">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="J26">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>50.45577166666667</v>
-      </c>
-      <c r="N26">
-        <v>151.367315</v>
-      </c>
-      <c r="O26">
-        <v>0.18996722124408</v>
-      </c>
-      <c r="P26">
-        <v>0.18996722124408</v>
-      </c>
-      <c r="Q26">
-        <v>4.675029979546667</v>
-      </c>
-      <c r="R26">
-        <v>42.07526981592</v>
-      </c>
-      <c r="S26">
-        <v>0.003628004085171076</v>
-      </c>
-      <c r="T26">
-        <v>0.003628004085171074</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.092656</v>
-      </c>
-      <c r="H27">
-        <v>0.277968</v>
-      </c>
-      <c r="I27">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="J27">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>149.2656146666667</v>
-      </c>
-      <c r="N27">
-        <v>447.796844</v>
-      </c>
-      <c r="O27">
-        <v>0.5619887102876124</v>
-      </c>
-      <c r="P27">
-        <v>0.5619887102876123</v>
-      </c>
-      <c r="Q27">
-        <v>13.83035479255467</v>
-      </c>
-      <c r="R27">
-        <v>124.473193132992</v>
-      </c>
-      <c r="S27">
-        <v>0.01073289025017531</v>
-      </c>
-      <c r="T27">
-        <v>0.0107328902501753</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.092656</v>
-      </c>
-      <c r="H28">
-        <v>0.277968</v>
-      </c>
-      <c r="I28">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="J28">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>13.28522433333333</v>
-      </c>
-      <c r="N28">
-        <v>39.855673</v>
-      </c>
-      <c r="O28">
-        <v>0.05001919635439597</v>
-      </c>
-      <c r="P28">
-        <v>0.05001919635439596</v>
-      </c>
-      <c r="Q28">
-        <v>1.230955745829333</v>
-      </c>
-      <c r="R28">
-        <v>11.078601712464</v>
-      </c>
-      <c r="S28">
-        <v>0.0009552692697313323</v>
-      </c>
-      <c r="T28">
-        <v>0.000955269269731332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.092656</v>
-      </c>
-      <c r="H29">
-        <v>0.277968</v>
-      </c>
-      <c r="I29">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="J29">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>31.35116233333333</v>
-      </c>
-      <c r="N29">
-        <v>94.05348699999999</v>
-      </c>
-      <c r="O29">
-        <v>0.1180378972415954</v>
-      </c>
-      <c r="P29">
-        <v>0.1180378972415954</v>
-      </c>
-      <c r="Q29">
-        <v>2.904873297157333</v>
-      </c>
-      <c r="R29">
-        <v>26.143859674416</v>
-      </c>
-      <c r="S29">
-        <v>0.00225429403342845</v>
-      </c>
-      <c r="T29">
-        <v>0.002254294033428448</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.092656</v>
-      </c>
-      <c r="H30">
-        <v>0.277968</v>
-      </c>
-      <c r="I30">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="J30">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>3.820091</v>
-      </c>
-      <c r="N30">
-        <v>11.460273</v>
-      </c>
-      <c r="O30">
-        <v>0.01438273656706242</v>
-      </c>
-      <c r="P30">
-        <v>0.01438273656706242</v>
-      </c>
-      <c r="Q30">
-        <v>0.353954351696</v>
-      </c>
-      <c r="R30">
-        <v>3.185589165264</v>
-      </c>
-      <c r="S30">
-        <v>0.0002746822671801754</v>
-      </c>
-      <c r="T30">
-        <v>0.0002746822671801754</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.092656</v>
-      </c>
-      <c r="H31">
-        <v>0.277968</v>
-      </c>
-      <c r="I31">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="J31">
-        <v>0.01909805313470171</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>17.42465066666666</v>
-      </c>
-      <c r="N31">
-        <v>52.27395199999999</v>
-      </c>
-      <c r="O31">
-        <v>0.06560423830525379</v>
-      </c>
-      <c r="P31">
-        <v>0.06560423830525378</v>
-      </c>
-      <c r="Q31">
-        <v>1.614498432170667</v>
-      </c>
-      <c r="R31">
-        <v>14.530485889536</v>
-      </c>
-      <c r="S31">
-        <v>0.00125291322901537</v>
-      </c>
-      <c r="T31">
-        <v>0.00125291322901537</v>
+        <v>0.008584268806497141</v>
       </c>
     </row>
   </sheetData>
